--- a/sp_data_dict.xlsx
+++ b/sp_data_dict.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="307">
   <si>
     <t>File</t>
   </si>
@@ -872,6 +872,66 @@
   </si>
   <si>
     <t>93,17,18,19,92,98</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>mdareas</t>
+  </si>
+  <si>
+    <t>Area on the vehicle most damaged during crash</t>
+  </si>
+  <si>
+    <t>Non Collision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock point 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock point 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock point 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock point 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock point 5 </t>
+  </si>
+  <si>
+    <t>Clock point 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock point 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock point 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock point 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock point 10 </t>
+  </si>
+  <si>
+    <t>Clock point 11</t>
+  </si>
+  <si>
+    <t>Clock point 12</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Other Areas</t>
+  </si>
+  <si>
+    <t>14,18,61,62,63,81,82,83</t>
+  </si>
+  <si>
+    <t>Unknown, Not Reported</t>
   </si>
 </sst>
 </file>
@@ -6908,52 +6968,372 @@
       </c>
     </row>
     <row r="237">
-      <c r="C237" s="12"/>
+      <c r="A237" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E237" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F237" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G237" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="238">
-      <c r="C238" s="12"/>
+      <c r="A238" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D238" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E238" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F238" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G238" s="10">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="239">
-      <c r="C239" s="12"/>
+      <c r="A239" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E239" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F239" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G239" s="10">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="240">
-      <c r="C240" s="12"/>
+      <c r="A240" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E240" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F240" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="G240" s="10">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="241">
-      <c r="C241" s="12"/>
+      <c r="A241" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E241" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="G241" s="10">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="242">
-      <c r="C242" s="12"/>
+      <c r="A242" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E242" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="F242" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G242" s="10">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="243">
-      <c r="C243" s="12"/>
+      <c r="A243" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E243" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="F243" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G243" s="10">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="244">
-      <c r="C244" s="12"/>
+      <c r="A244" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E244" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="F244" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G244" s="10">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="245">
-      <c r="C245" s="12"/>
+      <c r="A245" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E245" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="F245" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G245" s="10">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="246">
-      <c r="C246" s="12"/>
+      <c r="A246" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E246" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="F246" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G246" s="10">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="247">
-      <c r="C247" s="12"/>
+      <c r="A247" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E247" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="F247" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G247" s="10">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="248">
-      <c r="C248" s="12"/>
+      <c r="A248" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C248" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E248" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="F248" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G248" s="10">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="249">
-      <c r="C249" s="12"/>
+      <c r="A249" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E249" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="F249" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G249" s="10">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="250">
-      <c r="C250" s="12"/>
+      <c r="A250" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E250" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="F250" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G250" s="10">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="251">
-      <c r="C251" s="12"/>
+      <c r="A251" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E251" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="F251" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G251" s="10" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="252">
-      <c r="C252" s="12"/>
+      <c r="A252" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E252" s="10">
+        <v>98.0</v>
+      </c>
+      <c r="F252" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G252" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="253">
       <c r="C253" s="12"/>
@@ -9171,6 +9551,15 @@
     </row>
     <row r="991">
       <c r="C991" s="12"/>
+    </row>
+    <row r="992">
+      <c r="C992" s="12"/>
+    </row>
+    <row r="993">
+      <c r="C993" s="12"/>
+    </row>
+    <row r="994">
+      <c r="C994" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="76">
